--- a/cyberomanov/evidence.xlsx
+++ b/cyberomanov/evidence.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -121,10 +121,10 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>7B45A445A1FB30915268E32ADEFE60B334AA082217A29EABCDDFFEE4EDECE42A</t>
+  </si>
+  <si>
+    <t>cyberomanovGoN</t>
   </si>
   <si>
     <t>A2</t>
@@ -133,7 +133,13 @@
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>2D23B2D7DE7B0119F683D8FF0E41FC3F73F9B6FE8E9EA24578A0A2DDE9BE4873</t>
+  </si>
+  <si>
+    <t>151CF5B029A57C2565F1089F87945673EBA638F8193BEB9F83CCF42E3440CCF6</t>
+  </si>
+  <si>
+    <t>cyberomanovGoN1</t>
   </si>
   <si>
     <t>A3</t>
@@ -142,31 +148,49 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
+    <t>5E24AFBE735476CCC1A9883E52141639BC8146E006DCDC39BAA5C807CB9002DF</t>
+  </si>
+  <si>
+    <t>wasm.juno1elnqmv6mxexgavzj9rzhh8sucnytade4wwuq8a3spzdxt00r49vs5msmws</t>
+  </si>
+  <si>
+    <t>JUNO</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>48B31076A1754E0FCCDB16557E4C074E5DCA963EBC0658E302018BA576F2B624</t>
+  </si>
+  <si>
+    <t>ibc/1FF9E208AF562189FA24D3F1B13BC24313159F090C9E618ADAC5AE553D8B5349</t>
+  </si>
+  <si>
+    <t>UPTICK</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>4F6C0F93E69B91FBB6E193D2A0EF0F29EA2D8B037B456E9DC1953661A7F5232F</t>
+  </si>
+  <si>
+    <t>IRIS</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>70E63379DB34E8339BD8C0C36D327434FD16F496B897F8CBEAD1D10C17B35AEE</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
   </si>
   <si>
     <t>A8</t>
@@ -403,7 +427,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -455,7 +479,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1686,7 +1716,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1697,12 +1727,12 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1713,12 +1743,12 @@
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1729,12 +1759,12 @@
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="3">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1745,12 +1775,12 @@
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s" s="3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1761,12 +1791,12 @@
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s" s="3">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1777,12 +1807,12 @@
         <v>5</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s" s="3">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1793,12 +1823,12 @@
         <v>5</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s" s="3">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1809,12 +1839,12 @@
         <v>5</v>
       </c>
       <c r="D30" t="s" s="5">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s" s="3">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1825,12 +1855,12 @@
         <v>5</v>
       </c>
       <c r="D32" t="s" s="5">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s" s="3">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1841,12 +1871,12 @@
         <v>5</v>
       </c>
       <c r="D34" t="s" s="5">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s" s="3">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1857,12 +1887,12 @@
         <v>5</v>
       </c>
       <c r="D36" t="s" s="5">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s" s="3">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1873,12 +1903,12 @@
         <v>5</v>
       </c>
       <c r="D38" t="s" s="5">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s" s="3">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1889,12 +1919,12 @@
         <v>5</v>
       </c>
       <c r="D40" t="s" s="5">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s" s="3">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1905,12 +1935,12 @@
         <v>5</v>
       </c>
       <c r="D42" t="s" s="5">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s" s="3">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1921,12 +1951,12 @@
         <v>5</v>
       </c>
       <c r="D44" t="s" s="5">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s" s="3">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1937,12 +1967,12 @@
         <v>5</v>
       </c>
       <c r="D46" t="s" s="5">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s" s="3">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1953,12 +1983,12 @@
         <v>5</v>
       </c>
       <c r="D48" t="s" s="5">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s" s="3">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1969,12 +1999,12 @@
         <v>5</v>
       </c>
       <c r="D50" t="s" s="5">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s" s="3">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1985,12 +2015,12 @@
         <v>5</v>
       </c>
       <c r="D52" t="s" s="5">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="s" s="3">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2001,12 +2031,12 @@
         <v>5</v>
       </c>
       <c r="D54" t="s" s="5">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s" s="3">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2017,12 +2047,12 @@
         <v>5</v>
       </c>
       <c r="D56" t="s" s="5">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="s" s="3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2033,7 +2063,7 @@
         <v>5</v>
       </c>
       <c r="D58" t="s" s="5">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2078,9 +2108,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="22" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="22" customWidth="1"/>
+    <col min="1" max="1" width="16" style="24" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2096,10 +2126,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2178,9 +2208,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="23" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="23" customWidth="1"/>
+    <col min="1" max="1" width="16" style="25" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2196,10 +2226,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2278,9 +2308,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="24" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="24" customWidth="1"/>
+    <col min="1" max="1" width="16" style="26" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2296,10 +2326,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2378,9 +2408,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="25" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="25" customWidth="1"/>
+    <col min="1" max="1" width="16" style="27" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2396,10 +2426,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2478,9 +2508,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="26" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="26" customWidth="1"/>
+    <col min="1" max="1" width="16" style="28" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2496,10 +2526,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2578,9 +2608,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="27" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="27" customWidth="1"/>
+    <col min="1" max="1" width="16" style="29" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2588,7 +2618,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="13"/>
@@ -2596,18 +2626,18 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="28">
-        <v>49</v>
+      <c r="A3" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -2615,8 +2645,8 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="28">
-        <v>49</v>
+      <c r="A4" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2682,9 +2712,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="29" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="29" customWidth="1"/>
+    <col min="1" max="1" width="16" style="31" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2692,7 +2722,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="13"/>
@@ -2700,18 +2730,18 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="28">
-        <v>49</v>
+      <c r="A3" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -2719,8 +2749,8 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="28">
-        <v>49</v>
+      <c r="A4" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2786,9 +2816,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="30" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="30" customWidth="1"/>
+    <col min="1" max="1" width="16" style="32" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2796,7 +2826,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="13"/>
@@ -2804,18 +2834,18 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="28">
-        <v>49</v>
+      <c r="A3" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -2823,8 +2853,8 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="28">
-        <v>49</v>
+      <c r="A4" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2890,9 +2920,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="31" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="31" customWidth="1"/>
+    <col min="1" max="1" width="16" style="33" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="33" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2900,7 +2930,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="13"/>
@@ -2908,18 +2938,18 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="28">
-        <v>49</v>
+      <c r="A3" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -2927,8 +2957,8 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="28">
-        <v>49</v>
+      <c r="A4" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2994,9 +3024,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="32" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="32" customWidth="1"/>
+    <col min="1" max="1" width="16" style="34" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3004,7 +3034,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="13"/>
@@ -3012,18 +3042,18 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="28">
-        <v>49</v>
+      <c r="A3" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3031,8 +3061,8 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="28">
-        <v>49</v>
+      <c r="A4" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3261,9 +3291,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="33" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="33" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16" style="35" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3271,7 +3301,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="13"/>
@@ -3279,18 +3309,18 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="28">
-        <v>49</v>
+      <c r="A3" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3298,8 +3328,8 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="28">
-        <v>49</v>
+      <c r="A4" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3365,9 +3395,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="34" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="34" customWidth="1"/>
+    <col min="1" max="1" width="16" style="36" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="36" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3375,7 +3405,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="13"/>
@@ -3383,18 +3413,18 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="28">
-        <v>49</v>
+      <c r="A3" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3402,8 +3432,8 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="28">
-        <v>49</v>
+      <c r="A4" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3469,9 +3499,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="35" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="35" customWidth="1"/>
+    <col min="1" max="1" width="16" style="37" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="37" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3479,7 +3509,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="13"/>
@@ -3487,18 +3517,18 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="28">
-        <v>49</v>
+      <c r="A3" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3506,8 +3536,8 @@
       <c r="E3" s="13"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="28">
-        <v>49</v>
+      <c r="A4" t="s" s="30">
+        <v>57</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3573,8 +3603,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="36" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="36" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3588,7 +3618,7 @@
     </row>
     <row r="2" ht="16.4" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3596,8 +3626,8 @@
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="28">
-        <v>59</v>
+      <c r="A3" t="s" s="30">
+        <v>67</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3671,8 +3701,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="37" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="37" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="39" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3686,7 +3716,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3694,8 +3724,8 @@
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="28">
-        <v>59</v>
+      <c r="A3" t="s" s="30">
+        <v>67</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3769,8 +3799,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="38" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="38" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="40" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3784,7 +3814,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3792,8 +3822,8 @@
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="28">
-        <v>59</v>
+      <c r="A3" t="s" s="30">
+        <v>67</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3867,8 +3897,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="39" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="39" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="41" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3882,7 +3912,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -3890,8 +3920,8 @@
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="28">
-        <v>59</v>
+      <c r="A3" t="s" s="30">
+        <v>67</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -4086,21 +4116,27 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="12">
         <v>26</v>
       </c>
       <c r="C2" t="s" s="10">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="A3" t="s" s="17">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="17">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s" s="17">
+        <v>31</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
@@ -4170,10 +4206,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="17" customWidth="1"/>
-    <col min="3" max="3" width="16" style="17" customWidth="1"/>
-    <col min="4" max="5" width="12.6719" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="17" customWidth="1"/>
+    <col min="1" max="1" width="17.8516" style="18" customWidth="1"/>
+    <col min="2" max="2" width="36.7031" style="18" customWidth="1"/>
+    <col min="3" max="3" width="16" style="18" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -4187,29 +4224,29 @@
         <v>28</v>
       </c>
       <c r="D1" t="s" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="15"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s" s="10">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
+    <row r="3" ht="14.6" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
     </row>
@@ -4279,10 +4316,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="18" customWidth="1"/>
-    <col min="3" max="3" width="16" style="18" customWidth="1"/>
-    <col min="4" max="5" width="12.6719" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="18" customWidth="1"/>
+    <col min="1" max="2" width="17.8516" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16" style="20" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -4296,22 +4333,22 @@
         <v>28</v>
       </c>
       <c r="D1" t="s" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="15"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>32</v>
+      <c r="A2" t="s" s="12">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s" s="12">
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s" s="10">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="D2" t="s" s="12">
+        <v>40</v>
       </c>
       <c r="E2" s="13"/>
     </row>
@@ -4388,10 +4425,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="19" customWidth="1"/>
-    <col min="3" max="3" width="16" style="19" customWidth="1"/>
-    <col min="4" max="5" width="12.6719" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="19" customWidth="1"/>
+    <col min="1" max="2" width="17.8516" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16" style="21" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -4405,22 +4442,22 @@
         <v>28</v>
       </c>
       <c r="D1" t="s" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="15"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s" s="10">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E2" s="13"/>
     </row>
@@ -4497,12 +4534,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.8516" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16" style="20" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="20" customWidth="1"/>
-    <col min="4" max="4" width="14.3516" style="20" customWidth="1"/>
-    <col min="5" max="5" width="12.6719" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="20" customWidth="1"/>
+    <col min="1" max="1" width="17.8516" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="22" customWidth="1"/>
+    <col min="4" max="4" width="14.3516" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.6719" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -4516,22 +4553,22 @@
         <v>28</v>
       </c>
       <c r="D1" t="s" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="15"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s" s="10">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s" s="10">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E2" s="13"/>
     </row>
@@ -4608,9 +4645,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="21" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="21" customWidth="1"/>
+    <col min="1" max="1" width="16" style="23" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -4626,10 +4663,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="10">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>

--- a/cyberomanov/evidence.xlsx
+++ b/cyberomanov/evidence.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -50,10 +50,360 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
     <t>Info</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Info</t>
+    </r>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A2</t>
+    </r>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A3</t>
+    </r>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A4</t>
+    </r>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A5</t>
+    </r>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A6</t>
+    </r>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A7</t>
+    </r>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A8</t>
+    </r>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A9</t>
+    </r>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A10</t>
+    </r>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A11</t>
+    </r>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A12</t>
+    </r>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A13</t>
+    </r>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A14</t>
+    </r>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A15</t>
+    </r>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A16</t>
+    </r>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A17</t>
+    </r>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A18</t>
+    </r>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A19</t>
+    </r>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>A20</t>
+    </r>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>B1</t>
+    </r>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>B2</t>
+    </r>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>B5</t>
+    </r>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>B6</t>
+    </r>
   </si>
   <si>
     <t>TeamName</t>
@@ -105,16 +455,13 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="14"/>
+        <color indexed="15"/>
         <rFont val="Arial"/>
       </rPr>
       <t>https://t.me/how_to_node</t>
     </r>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>TxHash</t>
   </si>
   <si>
@@ -127,9 +474,6 @@
     <t>cyberomanovGoN</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
@@ -142,9 +486,6 @@
     <t>cyberomanovGoN1</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -154,10 +495,7 @@
     <t>wasm.juno1elnqmv6mxexgavzj9rzhh8sucnytade4wwuq8a3spzdxt00r49vs5msmws</t>
   </si>
   <si>
-    <t>JUNO</t>
-  </si>
-  <si>
-    <t>A4</t>
+    <t>uni-6</t>
   </si>
   <si>
     <t>48B31076A1754E0FCCDB16557E4C074E5DCA963EBC0658E302018BA576F2B624</t>
@@ -166,97 +504,172 @@
     <t>ibc/1FF9E208AF562189FA24D3F1B13BC24313159F090C9E618ADAC5AE553D8B5349</t>
   </si>
   <si>
-    <t>UPTICK</t>
-  </si>
-  <si>
-    <t>A5</t>
+    <t>uptick_7000-2</t>
   </si>
   <si>
     <t>4F6C0F93E69B91FBB6E193D2A0EF0F29EA2D8B037B456E9DC1953661A7F5232F</t>
   </si>
   <si>
-    <t>IRIS</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
     <t>70E63379DB34E8339BD8C0C36D327434FD16F496B897F8CBEAD1D10C17B35AEE</t>
   </si>
   <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t>A17</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>B1</t>
+    <t>ibc/CD06F9CF7CDB3BFA8D52EB5149D55BFAFC5573B66417E46626CDAA710522ED8A</t>
+  </si>
+  <si>
+    <t>nfta7</t>
+  </si>
+  <si>
+    <t>ibc/133B90E76A5226609F216999E5F17977C702BB870C816F5C67CC6A96B386AC7A</t>
+  </si>
+  <si>
+    <t>nfta8</t>
+  </si>
+  <si>
+    <t>ibc/7E86045F001D963DA7D562D3620B52CA90D282AB4597DAABCC47C7104888DD85</t>
+  </si>
+  <si>
+    <t>nfta9</t>
+  </si>
+  <si>
+    <t>ibc/CFA11D19200D05AA199AE427CB3BD00052127E1EF0B8D4F4F75C15CE0F6549B7</t>
+  </si>
+  <si>
+    <t>nfta10</t>
+  </si>
+  <si>
+    <t>ibc/D20F169D5070E562489CF232D9CD0C1DB4BBBCB80374711A13091F33E06F27F7</t>
+  </si>
+  <si>
+    <t>nftaa11</t>
+  </si>
+  <si>
+    <t>ibc/F0810BFA9393377DDD5BEE7FC113ECFDC62F7DE72B7994CA0C7BC73B0DB0F5AB</t>
+  </si>
+  <si>
+    <t>nfta12</t>
+  </si>
+  <si>
+    <t>F2C785D68A85A9B6CF4DA7BB78E0915C83DE855DEBBE241F62ECE1692B6D04FE</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>8E1157C9ACFFD6871C727154EADD18B602D48B95120173FB54EFCB7D0E3709BA</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>3D46E98AC0BB6FD6B0B272619FC2B94C2DF89FEC048EDC40EC951F3048EFAE71</t>
+  </si>
+  <si>
+    <t>3C22A46ECCAD0D8EC576350106928450D48E8F831A1DCF1DBE185858880EED76</t>
+  </si>
+  <si>
+    <t>E143DF3BCDEE67233649368D343EA8030A2611CA0C0179A041C96785B742ADAA</t>
+  </si>
+  <si>
+    <t>A601E8E6905D772E655C13E3EA3C652E06088854893C89B69F3FF2BBCEA8D8F5</t>
+  </si>
+  <si>
+    <t>6339280F1C8E39A3BA4CD411206F737E2E04A108B2B43F9322DAC0F67270A2A2</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>21F89ED4C0BAA3BDB6D2D6CD9E4B22A6E32C06916133314443241A3008C90C90</t>
+  </si>
+  <si>
+    <t>2B2D2F0CFBD2CAA87EA86B938B3842F07B7320160BD8AD5F2E9022EB4E48E781</t>
+  </si>
+  <si>
+    <t>AE96A426B57FEE4DB22D3E1B479529F32BDA379F55001DA5278594583A9C93F0</t>
+  </si>
+  <si>
+    <t>446D381AEB5FEFC6E5512CCF335C660CE6587DCFD3323D0B1DB1392EF1147EA2</t>
+  </si>
+  <si>
+    <t>07B533D6B01944C744DE4572C371DB0AE206107951CF76DD7E8573B4F307A43B</t>
+  </si>
+  <si>
+    <t>9031C23F25D4D6D66FBD8F1B8DDCA8548F3AA6BA139C16206466587AACD65898</t>
+  </si>
+  <si>
+    <t>284E585820604712E219EB8A198ABBEACDFE1082620A12A4485BFADBA44080DD</t>
+  </si>
+  <si>
+    <t>5BE086A0CF5D0C9B4644808AA4647F48EA116F6106B1362EBB48E9B3520ACEF3</t>
+  </si>
+  <si>
+    <t>3190A19B65B131218B8E46098EB7EB09F88E5DBA16C0FF6CEAEA803C4F1814E6</t>
+  </si>
+  <si>
+    <t>23B77FD9EF42522AE8BE955CA83657638D32863BB6FAA1D9C786D074DC188EFF</t>
+  </si>
+  <si>
+    <t>D42925D7F180E3950476312EB2F50897EC3467C28255A4144794C7B97FC55B4C</t>
+  </si>
+  <si>
+    <t>47742916E81429D1DED19118B214C7E5662F0197DDA94DA94DAF2DB2BF664ACA</t>
+  </si>
+  <si>
+    <t>4557B6FD94F93E27BE6EB8F8100A1E5233CFA2D38E00F85EE086E567CD202391</t>
+  </si>
+  <si>
+    <t>0EF5411C3122E5EB2CABFD181B5D3D6480F9FDAAB50D8AA0EA8A23E90624A086</t>
+  </si>
+  <si>
+    <t>E813B4EFB32E5B301C83039BB043A8E3C4CE8DCE78C96174ABC63CAD7EB1E5A1</t>
+  </si>
+  <si>
+    <t>8CAFAFC4064F81705FE52B755FF9A9533DE39A2937C3ED0A55FD22D2E3E918EC</t>
+  </si>
+  <si>
+    <t>E2420344530595344A248C301EBD530D2A61EEA650955BB46AD92AEB43364509</t>
+  </si>
+  <si>
+    <t>0FB6E299FA4CBA00310808106B047F762450D0C16293B4ADE6FDBEDB4EEF7708</t>
+  </si>
+  <si>
+    <t>EA6890D345080CC38884435FDE95924FBC71F9B1279324FC697E2DEC80E96A50</t>
+  </si>
+  <si>
+    <t>5B8848C7F4661D882A58DA45924CF9B6850FB48D99C23F7BFA69A193C5B2459D</t>
+  </si>
+  <si>
+    <t>C7B30050FE608B211FEA95AEBA88616889A784A629E1A72D343188E7007D7295</t>
+  </si>
+  <si>
+    <t>5622EE71CE9FE64242892B41F3067E0264E76237091BF8C8AFE97FA02D94B826</t>
+  </si>
+  <si>
+    <t>EC0B220CDAEBF5D1FCF1BAC50E8DA80A45517F7503FD650030B12751344AEED9</t>
+  </si>
+  <si>
+    <t>687714643FA5F027E6BE65E35E5102497D0668AA17277A0FC687018770C5DFA0</t>
+  </si>
+  <si>
+    <t>7D65E2899BC953D1589680607080542F1EC09FF37D3405F722518A6648C09F0C</t>
+  </si>
+  <si>
+    <t>9031BAFF51137E54CF1A9C5B3FA16E7BF7572069D0DBBDF308AF75A85578776A</t>
+  </si>
+  <si>
+    <t>2895F38F3C3D49598FA53A5D6A539E0051C0B369C992BA572BB5D06D7F7248B8</t>
+  </si>
+  <si>
+    <t>B0E5D6B7670A7ABC4947059C0B5E081F7CD5C17BF473178BB24417C37A27CD0D</t>
+  </si>
+  <si>
+    <t>80B7619B5684B3F13EB5D69B4EF15E11E005BBDF83B9928DC9812CFCC48D0431</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
   </si>
 </sst>
 </file>
@@ -306,16 +719,16 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="14"/>
+      <color indexed="15"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="15"/>
+      <color indexed="13"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,12 +749,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -351,11 +770,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -364,7 +783,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -372,52 +791,108 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,7 +902,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -449,48 +924,102 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -518,7 +1047,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -574,10 +1106,10 @@
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffd9d9d9"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -776,17 +1308,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -814,10 +1346,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1065,12 +1597,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1357,7 +1889,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1385,10 +1917,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1639,438 +2171,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="2" max="2" width="33.6719" style="6" customWidth="1"/>
+    <col min="3" max="3" width="33.6719" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33.6719" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="0.05" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="10"/>
       <c r="B13" t="s" s="3">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="10"/>
       <c r="B15" t="s" s="3">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" ht="13" customHeight="1">
+      <c r="A17" s="10"/>
       <c r="B17" t="s" s="3">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" ht="13" customHeight="1">
+      <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>12</v>
+      </c>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" ht="13" customHeight="1">
+      <c r="A19" s="10"/>
       <c r="B19" t="s" s="3">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20">
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" ht="13" customHeight="1">
+      <c r="A20" s="10"/>
       <c r="B20" s="4"/>
       <c r="C20" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>14</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" ht="13" customHeight="1">
+      <c r="A21" s="10"/>
       <c r="B21" t="s" s="3">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22">
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" ht="13" customHeight="1">
+      <c r="A22" s="10"/>
       <c r="B22" s="4"/>
       <c r="C22" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>16</v>
+      </c>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" ht="13" customHeight="1">
+      <c r="A23" s="10"/>
       <c r="B23" t="s" s="3">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24">
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" ht="13" customHeight="1">
+      <c r="A24" s="10"/>
       <c r="B24" s="4"/>
       <c r="C24" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>18</v>
+      </c>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" ht="13" customHeight="1">
+      <c r="A25" s="10"/>
       <c r="B25" t="s" s="3">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" ht="13" customHeight="1">
+      <c r="A26" s="10"/>
       <c r="B26" s="4"/>
       <c r="C26" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" ht="13" customHeight="1">
+      <c r="A27" s="10"/>
       <c r="B27" t="s" s="3">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28">
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" ht="13" customHeight="1">
+      <c r="A28" s="10"/>
       <c r="B28" s="4"/>
       <c r="C28" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>22</v>
+      </c>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" ht="13" customHeight="1">
+      <c r="A29" s="10"/>
       <c r="B29" t="s" s="3">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-    </row>
-    <row r="30">
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" ht="13" customHeight="1">
+      <c r="A30" s="10"/>
       <c r="B30" s="4"/>
       <c r="C30" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D30" t="s" s="5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>24</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" ht="13" customHeight="1">
+      <c r="A31" s="10"/>
       <c r="B31" t="s" s="3">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-    </row>
-    <row r="32">
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" ht="13" customHeight="1">
+      <c r="A32" s="10"/>
       <c r="B32" s="4"/>
       <c r="C32" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D32" t="s" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>26</v>
+      </c>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" ht="13" customHeight="1">
+      <c r="A33" s="10"/>
       <c r="B33" t="s" s="3">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-    </row>
-    <row r="34">
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" ht="13" customHeight="1">
+      <c r="A34" s="10"/>
       <c r="B34" s="4"/>
       <c r="C34" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D34" t="s" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>28</v>
+      </c>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" ht="13" customHeight="1">
+      <c r="A35" s="10"/>
       <c r="B35" t="s" s="3">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-    </row>
-    <row r="36">
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" ht="13" customHeight="1">
+      <c r="A36" s="10"/>
       <c r="B36" s="4"/>
       <c r="C36" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D36" t="s" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>30</v>
+      </c>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" ht="13" customHeight="1">
+      <c r="A37" s="10"/>
       <c r="B37" t="s" s="3">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-    </row>
-    <row r="38">
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" ht="13" customHeight="1">
+      <c r="A38" s="10"/>
       <c r="B38" s="4"/>
       <c r="C38" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D38" t="s" s="5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>32</v>
+      </c>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" ht="13" customHeight="1">
+      <c r="A39" s="10"/>
       <c r="B39" t="s" s="3">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-    </row>
-    <row r="40">
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" ht="13" customHeight="1">
+      <c r="A40" s="10"/>
       <c r="B40" s="4"/>
       <c r="C40" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D40" t="s" s="5">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>34</v>
+      </c>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" ht="13" customHeight="1">
+      <c r="A41" s="10"/>
       <c r="B41" t="s" s="3">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-    </row>
-    <row r="42">
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" ht="13" customHeight="1">
+      <c r="A42" s="10"/>
       <c r="B42" s="4"/>
       <c r="C42" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D42" t="s" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>36</v>
+      </c>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" ht="13" customHeight="1">
+      <c r="A43" s="10"/>
       <c r="B43" t="s" s="3">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-    </row>
-    <row r="44">
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" ht="13" customHeight="1">
+      <c r="A44" s="10"/>
       <c r="B44" s="4"/>
       <c r="C44" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D44" t="s" s="5">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>38</v>
+      </c>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" ht="13" customHeight="1">
+      <c r="A45" s="10"/>
       <c r="B45" t="s" s="3">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-    </row>
-    <row r="46">
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" ht="13" customHeight="1">
+      <c r="A46" s="10"/>
       <c r="B46" s="4"/>
       <c r="C46" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D46" t="s" s="5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>40</v>
+      </c>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" ht="13" customHeight="1">
+      <c r="A47" s="10"/>
       <c r="B47" t="s" s="3">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-    </row>
-    <row r="48">
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" ht="13" customHeight="1">
+      <c r="A48" s="10"/>
       <c r="B48" s="4"/>
       <c r="C48" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D48" t="s" s="5">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>42</v>
+      </c>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" ht="13" customHeight="1">
+      <c r="A49" s="10"/>
       <c r="B49" t="s" s="3">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-    </row>
-    <row r="50">
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50" ht="13" customHeight="1">
+      <c r="A50" s="10"/>
       <c r="B50" s="4"/>
       <c r="C50" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D50" t="s" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>44</v>
+      </c>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" ht="13" customHeight="1">
+      <c r="A51" s="10"/>
       <c r="B51" t="s" s="3">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-    </row>
-    <row r="52">
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" ht="13" customHeight="1">
+      <c r="A52" s="10"/>
       <c r="B52" s="4"/>
       <c r="C52" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D52" t="s" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>46</v>
+      </c>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" ht="13" customHeight="1">
+      <c r="A53" s="10"/>
       <c r="B53" t="s" s="3">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-    </row>
-    <row r="54">
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" ht="13" customHeight="1">
+      <c r="A54" s="10"/>
       <c r="B54" s="4"/>
       <c r="C54" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D54" t="s" s="5">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>48</v>
+      </c>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55" ht="13" customHeight="1">
+      <c r="A55" s="10"/>
       <c r="B55" t="s" s="3">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-    </row>
-    <row r="56">
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" ht="13" customHeight="1">
+      <c r="A56" s="10"/>
       <c r="B56" s="4"/>
       <c r="C56" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D56" t="s" s="5">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>50</v>
+      </c>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" ht="13" customHeight="1">
+      <c r="A57" s="10"/>
       <c r="B57" t="s" s="3">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-    </row>
-    <row r="58">
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" ht="13" customHeight="1">
+      <c r="A58" s="20"/>
       <c r="B58" s="4"/>
       <c r="C58" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D58" t="s" s="5">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59">
+      <c r="B59" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="4"/>
+      <c r="C60" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s" s="5">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'Info'!R1C1" tooltip="" display="Info"/>
     <hyperlink ref="D12" location="'A1'!R1C1" tooltip="" display="A1"/>
     <hyperlink ref="D14" location="'A2'!R1C1" tooltip="" display="A2"/>
@@ -2096,7 +2802,37 @@
     <hyperlink ref="D54" location="'B2'!R1C1" tooltip="" display="B2"/>
     <hyperlink ref="D56" location="'B5'!R1C1" tooltip="" display="B5"/>
     <hyperlink ref="D58" location="'B6'!R1C1" tooltip="" display="B6"/>
+    <hyperlink ref="D12" location="'Info'!R1C1" tooltip="" display="Info"/>
+    <hyperlink ref="D14" location="'A1'!R1C1" tooltip="" display="A1"/>
+    <hyperlink ref="D16" location="'A2'!R1C1" tooltip="" display="A2"/>
+    <hyperlink ref="D18" location="'A3'!R1C1" tooltip="" display="A3"/>
+    <hyperlink ref="D20" location="'A4'!R1C1" tooltip="" display="A4"/>
+    <hyperlink ref="D22" location="'A5'!R1C1" tooltip="" display="A5"/>
+    <hyperlink ref="D24" location="'A6'!R1C1" tooltip="" display="A6"/>
+    <hyperlink ref="D26" location="'A7'!R1C1" tooltip="" display="A7"/>
+    <hyperlink ref="D28" location="'A8'!R1C1" tooltip="" display="A8"/>
+    <hyperlink ref="D30" location="'A9'!R1C1" tooltip="" display="A9"/>
+    <hyperlink ref="D32" location="'A10'!R1C1" tooltip="" display="A10"/>
+    <hyperlink ref="D34" location="'A11'!R1C1" tooltip="" display="A11"/>
+    <hyperlink ref="D36" location="'A12'!R1C1" tooltip="" display="A12"/>
+    <hyperlink ref="D38" location="'A13'!R1C1" tooltip="" display="A13"/>
+    <hyperlink ref="D40" location="'A14'!R1C1" tooltip="" display="A14"/>
+    <hyperlink ref="D42" location="'A15'!R1C1" tooltip="" display="A15"/>
+    <hyperlink ref="D44" location="'A16'!R1C1" tooltip="" display="A16"/>
+    <hyperlink ref="D46" location="'A17'!R1C1" tooltip="" display="A17"/>
+    <hyperlink ref="D48" location="'A18'!R1C1" tooltip="" display="A18"/>
+    <hyperlink ref="D50" location="'A19'!R1C1" tooltip="" display="A19"/>
+    <hyperlink ref="D52" location="'A20'!R1C1" tooltip="" display="A20"/>
+    <hyperlink ref="D54" location="'B1'!R1C1" tooltip="" display="B1"/>
+    <hyperlink ref="D56" location="'B2'!R1C1" tooltip="" display="B2"/>
+    <hyperlink ref="D58" location="'B5'!R1C1" tooltip="" display="B5"/>
+    <hyperlink ref="D60" location="'B6'!R1C1" tooltip="" display="B6"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2108,88 +2844,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="24" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="24" customWidth="1"/>
+    <col min="1" max="1" width="16" style="43" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="43" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>76</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>92</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -2208,88 +2944,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="25" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="25" customWidth="1"/>
+    <col min="1" max="1" width="16" style="44" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>76</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>94</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -2308,88 +3044,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="26" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="26" customWidth="1"/>
+    <col min="1" max="1" width="16" style="45" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="45" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>76</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>96</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -2408,88 +3144,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="27" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="27" customWidth="1"/>
+    <col min="1" max="1" width="16" style="46" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="46" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>76</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>98</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -2508,88 +3244,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="28" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="28" customWidth="1"/>
+    <col min="1" max="1" width="16" style="47" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="47" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>76</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>100</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -2608,92 +3344,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="29" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="29" customWidth="1"/>
+    <col min="1" max="1" width="16" style="48" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>102</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" t="s" s="49">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s" s="36">
+        <v>104</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" t="s" s="49">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s" s="36">
+        <v>86</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" t="s" s="36">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>104</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -2712,92 +3456,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="31" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="31" customWidth="1"/>
+    <col min="1" max="1" width="16" style="50" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="50" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>102</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" t="s" s="49">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s" s="36">
+        <v>86</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" t="s" s="49">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s" s="36">
+        <v>110</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" t="s" s="36">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>86</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -2816,92 +3568,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="32" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="32" customWidth="1"/>
+    <col min="1" max="1" width="16" style="51" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="51" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>102</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" t="s" s="49">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s" s="36">
+        <v>83</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" t="s" s="49">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s" s="36">
+        <v>86</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" t="s" s="36">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>83</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -2920,92 +3680,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="33" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="33" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16" style="52" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="52" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>102</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" t="s" s="49">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s" s="36">
+        <v>83</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" t="s" s="49">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s" s="36">
+        <v>104</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" t="s" s="36">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>83</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -3024,92 +3792,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="34" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="34" customWidth="1"/>
+    <col min="1" max="1" width="16" style="53" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="53" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>102</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" t="s" s="49">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s" s="36">
+        <v>104</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" t="s" s="49">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s" s="36">
+        <v>83</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" t="s" s="36">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>104</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -3128,148 +3904,148 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.6719" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.8516" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.1719" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.1719" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.8516" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14.6719" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.6719" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="12.6719" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.6719" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.8516" style="25" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="16.1719" style="25" customWidth="1"/>
+    <col min="5" max="5" width="18.1719" style="25" customWidth="1"/>
+    <col min="6" max="6" width="17.8516" style="25" customWidth="1"/>
+    <col min="7" max="7" width="14.6719" style="25" customWidth="1"/>
+    <col min="8" max="8" width="12.6719" style="25" customWidth="1"/>
+    <col min="9" max="16384" width="12.6719" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s" s="9">
-        <v>13</v>
+      <c r="A1" t="s" s="26">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s" s="27">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s" s="27">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s" s="27">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s" s="27">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s" s="27">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s" s="28">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s" s="12">
-        <v>21</v>
+      <c r="A2" t="s" s="29">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s" s="29">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s" s="29">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s" s="30">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s" s="29">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s" s="29">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s" s="31">
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3291,92 +4067,100 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="35" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="35" customWidth="1"/>
+    <col min="1" max="1" width="16" style="54" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="54" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>102</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" t="s" s="49">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s" s="36">
+        <v>110</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" t="s" s="49">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s" s="36">
+        <v>86</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" t="s" s="36">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>110</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -3395,92 +4179,108 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="36" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="36" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="36" customWidth="1"/>
+    <col min="1" max="1" width="16" style="55" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="55" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>102</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" t="s" s="49">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s" s="36">
+        <v>104</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" t="s" s="49">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s" s="36">
+        <v>83</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" t="s" s="36">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>86</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" t="s" s="36">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s" s="36">
+        <v>83</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" t="s" s="36">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s" s="36">
+        <v>104</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -3499,92 +4299,108 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="37" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="37" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="37" customWidth="1"/>
+    <col min="1" max="1" width="16" style="56" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="56" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>102</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" t="s" s="49">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s" s="36">
+        <v>86</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="30">
-        <v>57</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" t="s" s="49">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s" s="36">
+        <v>104</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" t="s" s="36">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s" s="36">
+        <v>110</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" t="s" s="36">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s" s="36">
+        <v>104</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" t="s" s="36">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s" s="36">
+        <v>86</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -3603,85 +4419,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="38" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="38" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="57" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="16.4" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>140</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="30">
-        <v>67</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" t="s" s="49">
+        <v>141</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
@@ -3701,85 +4517,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="39" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="39" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="58" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>140</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="30">
-        <v>67</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" t="s" s="49">
+        <v>141</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
@@ -3799,85 +4615,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="40" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="40" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="59" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>140</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="30">
-        <v>67</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" t="s" s="49">
+        <v>141</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
@@ -3897,85 +4713,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="41" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="41" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="60" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="60" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>140</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="30">
-        <v>67</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" t="s" s="49">
+        <v>141</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
@@ -3995,88 +4811,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="14" customWidth="1"/>
-    <col min="3" max="5" width="12.6719" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="14" customWidth="1"/>
+    <col min="1" max="2" width="17.8516" style="33" customWidth="1"/>
+    <col min="3" max="5" width="12.6719" style="33" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>73</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>75</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -4095,99 +4911,99 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="16" customWidth="1"/>
-    <col min="3" max="3" width="16" style="16" customWidth="1"/>
-    <col min="4" max="5" width="12.6719" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="16" customWidth="1"/>
+    <col min="1" max="2" width="17.8516" style="35" customWidth="1"/>
+    <col min="3" max="3" width="16" style="35" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s" s="27">
+        <v>76</v>
+      </c>
+      <c r="D1" s="34"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s" s="31">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s" s="29">
+        <v>75</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="17">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s" s="17">
-        <v>31</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" t="s" s="36">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s" s="36">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s" s="36">
+        <v>79</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -4206,98 +5022,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.8516" style="18" customWidth="1"/>
-    <col min="2" max="2" width="36.7031" style="18" customWidth="1"/>
-    <col min="3" max="3" width="16" style="18" customWidth="1"/>
-    <col min="4" max="5" width="12.6719" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="18" customWidth="1"/>
+    <col min="1" max="1" width="17.8516" style="37" customWidth="1"/>
+    <col min="2" max="2" width="36.6719" style="37" customWidth="1"/>
+    <col min="3" max="3" width="16" style="37" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="37" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="E1" s="15"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s" s="27">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s" s="29">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s" s="29">
+        <v>83</v>
+      </c>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="14.6" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -4316,97 +5132,97 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="20" customWidth="1"/>
-    <col min="3" max="3" width="16" style="20" customWidth="1"/>
-    <col min="4" max="5" width="12.6719" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="20" customWidth="1"/>
+    <col min="1" max="2" width="17.8516" style="39" customWidth="1"/>
+    <col min="3" max="3" width="16" style="39" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="39" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="E1" s="15"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s" s="27">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s" s="12">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="31">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s" s="31">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s" s="29">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s" s="29">
+        <v>86</v>
+      </c>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -4425,97 +5241,97 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16" style="21" customWidth="1"/>
-    <col min="4" max="5" width="12.6719" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="21" customWidth="1"/>
+    <col min="1" max="2" width="17.8516" style="40" customWidth="1"/>
+    <col min="3" max="3" width="16" style="40" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="40" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="E1" s="15"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s" s="27">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s" s="29">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s" s="29">
+        <v>83</v>
+      </c>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -4534,99 +5350,99 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.8516" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14.3516" style="22" customWidth="1"/>
-    <col min="5" max="5" width="12.6719" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="22" customWidth="1"/>
+    <col min="1" max="1" width="17.8516" style="41" customWidth="1"/>
+    <col min="2" max="2" width="16" style="41" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="41" customWidth="1"/>
+    <col min="4" max="4" width="14.3516" style="41" customWidth="1"/>
+    <col min="5" max="5" width="12.6719" style="41" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="E1" s="15"/>
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s" s="27">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s" s="29">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s" s="29">
+        <v>86</v>
+      </c>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>
@@ -4645,88 +5461,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="23" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="23" customWidth="1"/>
+    <col min="1" max="1" width="16" style="42" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" t="s" s="26">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s" s="27">
+        <v>76</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" t="s" s="29">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>90</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511811" footer="0.511811"/>

--- a/cyberomanov/evidence.xlsx
+++ b/cyberomanov/evidence.xlsx
@@ -31,12 +31,13 @@
     <sheet name="B2" sheetId="24" r:id="rId27"/>
     <sheet name="B5" sheetId="25" r:id="rId28"/>
     <sheet name="B6" sheetId="26" r:id="rId29"/>
+    <sheet name="B7" sheetId="27" r:id="rId30"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -666,10 +667,37 @@
     <t>80B7619B5684B3F13EB5D69B4EF15E11E005BBDF83B9928DC9812CFCC48D0431</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
+    <t>04F01FF6F03126D549E79A9824F40BEBA354D741D809C18ACA2346AA9F291B65</t>
+  </si>
+  <si>
+    <t>352518B291DEC30664FFA758F2EC9CE7755F6B72348EA0F8724BEC785CDBF826</t>
+  </si>
+  <si>
+    <t>34CA1DC2ECCF175AE07C0D2AB9DE3DAE4B05697FD56D17D75962432D03DB85BE</t>
+  </si>
+  <si>
+    <t>BF92B0FDA96BB82B878509D98E21297CCA56BAE830D3FB0EBE589EECA9906301</t>
+  </si>
+  <si>
+    <t>8E95F575E60FC455186D5BBCD7FDF4F17F12D9F92503ACCF1337B04ABF49D5B2</t>
+  </si>
+  <si>
+    <t>BA811BCA42568F426FE1797FC84994BDA184428E57FBE81BA1E41A37B1051CEB</t>
+  </si>
+  <si>
+    <t>07E34D1E0B257E76E81261DF291C14E1580023FC763C62B35FEEAB610AA07230</t>
+  </si>
+  <si>
+    <t>497BF1416FE37FAB14C7D72869E9148AF6A4B040334F8543462DBB6B4467F1E4</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>67EF5D1D9EC8DD8AABB03B77E0D822397753BFC0B8470DD17FEA0FCA5B08053F</t>
+  </si>
+  <si>
+    <t>CCCBCF094D083155A90903245AA3A72D385D29177FE1C3E275E697309268FAFC</t>
   </si>
 </sst>
 </file>
@@ -902,7 +930,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1051,6 +1079,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2770,6 +2801,22 @@
         <v>54</v>
       </c>
     </row>
+    <row r="61">
+      <c r="B61" t="s" s="3">
+        <v>148</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="4"/>
+      <c r="C62" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s" s="5">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:D3"/>
@@ -2827,6 +2874,7 @@
     <hyperlink ref="D56" location="'B2'!R1C1" tooltip="" display="B2"/>
     <hyperlink ref="D58" location="'B5'!R1C1" tooltip="" display="B5"/>
     <hyperlink ref="D60" location="'B6'!R1C1" tooltip="" display="B6"/>
+    <hyperlink ref="D62" location="'B7'!R1C1" tooltip="" display="B7"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -4532,7 +4580,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="29">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -4541,7 +4589,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="49">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -4630,7 +4678,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="29">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -4639,7 +4687,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="49">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -4728,7 +4776,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="29">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -4737,7 +4785,105 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="49">
-        <v>141</v>
+        <v>147</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KFFFFFFB6</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KFFFFFFPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="11.5" style="61" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" t="s" s="29">
+        <v>149</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" t="s" s="49">
+        <v>150</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
